--- a/outputs/1/outputsRice_Leaves/ResNet50/model_results.xlsx
+++ b/outputs/1/outputsRice_Leaves/ResNet50/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1971983313560486</v>
+        <v>0.4476534724235535</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3782435655593872</v>
+        <v>0.8749725818634033</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G2" t="n">
         <v>0.2</v>
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2046254426240921</v>
+        <v>0.4159732758998871</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3874038457870483</v>
+        <v>0.8319465517997742</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G3" t="n">
         <v>0.2</v>
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2248581051826477</v>
+        <v>0.4190099835395813</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4122937321662903</v>
+        <v>0.8353196978569031</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G4" t="n">
         <v>0.2</v>
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4827176332473755</v>
+        <v>0.4876144528388977</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9512989521026611</v>
+        <v>0.9728505611419678</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G5" t="n">
         <v>0.2</v>
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4743416905403137</v>
+        <v>0.4815150797367096</v>
       </c>
       <c r="D6" t="n">
-        <v>0.942891001701355</v>
+        <v>0.9630301594734192</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G6" t="n">
         <v>0.2</v>
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4766838848590851</v>
+        <v>0.4789615571498871</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9380928874015808</v>
+        <v>0.9579231142997742</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G7" t="n">
         <v>0.2</v>
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4076964557170868</v>
+        <v>0.487484484910965</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7938805818557739</v>
+        <v>0.9726114273071289</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G8" t="n">
         <v>0.2</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3956283330917358</v>
+        <v>0.4814253747463226</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7778669595718384</v>
+        <v>0.9628507494926453</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G9" t="n">
         <v>0.2</v>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3985695838928223</v>
+        <v>0.4786626100540161</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7755700349807739</v>
+        <v>0.9573252201080322</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G10" t="n">
         <v>0.2</v>
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4395302534103394</v>
+        <v>0.4879044890403748</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8609594106674194</v>
+        <v>0.971769392490387</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G11" t="n">
         <v>0.2</v>
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.4259860217571259</v>
+        <v>0.4808399379253387</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8436952233314514</v>
+        <v>0.9616798758506775</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G12" t="n">
         <v>0.2</v>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.4286498427391052</v>
+        <v>0.4780485332012177</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8433040380477905</v>
+        <v>0.9560970664024353</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G13" t="n">
         <v>0.2</v>
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4817262589931488</v>
+        <v>0.490716964006424</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9510248899459839</v>
+        <v>0.9705013632774353</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G14" t="n">
         <v>0.2</v>
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.4699657261371613</v>
+        <v>0.4802432954311371</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9399314522743225</v>
+        <v>0.9604865908622742</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G15" t="n">
         <v>0.2</v>
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.4693419933319092</v>
+        <v>0.4777059853076935</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9383619427680969</v>
+        <v>0.955411970615387</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G16" t="n">
         <v>0.2</v>
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.482553631067276</v>
+        <v>0.4944567084312439</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9626489877700806</v>
+        <v>0.9712337851524353</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G17" t="n">
         <v>0.2</v>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.4822679162025452</v>
+        <v>0.4807253479957581</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9588298797607422</v>
+        <v>0.9614506959915161</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G18" t="n">
         <v>0.2</v>
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.4756094813346863</v>
+        <v>0.4784060120582581</v>
       </c>
       <c r="D19" t="n">
-        <v>0.94612717628479</v>
+        <v>0.9568120241165161</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G19" t="n">
         <v>0.2</v>
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.4837720990180969</v>
+        <v>0.4878552556037903</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9534787535667419</v>
+        <v>0.9757105112075806</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G20" t="n">
         <v>0.2</v>
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.4776721596717834</v>
+        <v>0.4828628301620483</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9458107352256775</v>
+        <v>0.9657256603240967</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G21" t="n">
         <v>0.2</v>
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.4760951399803162</v>
+        <v>0.4800527095794678</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9388551712036133</v>
+        <v>0.9601054191589355</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G22" t="n">
         <v>0.2</v>
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.4816279411315918</v>
+        <v>0.4878552556037903</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9477239847183228</v>
+        <v>0.9757105112075806</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G23" t="n">
         <v>0.2</v>
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.4774339199066162</v>
+        <v>0.4828628301620483</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9398342370986938</v>
+        <v>0.9657256603240967</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G24" t="n">
         <v>0.2</v>
@@ -1221,10 +1221,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4761153161525726</v>
+        <v>0.4800527095794678</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9322534799575806</v>
+        <v>0.9601054191589355</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G25" t="n">
         <v>0.2</v>
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4807537794113159</v>
+        <v>0.4878552556037903</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9445227980613708</v>
+        <v>0.9757105112075806</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G26" t="n">
         <v>0.2</v>
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4787014126777649</v>
+        <v>0.4828628301620483</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9376320242881775</v>
+        <v>0.9657256603240967</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G27" t="n">
         <v>0.2</v>
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.4796686470508575</v>
+        <v>0.4825089871883392</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9303725957870483</v>
+        <v>0.958219587802887</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G28" t="n">
         <v>0.2</v>
@@ -1349,10 +1349,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.4813622236251831</v>
+        <v>0.4873988032341003</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9443658590316772</v>
+        <v>0.9725366830825806</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G29" t="n">
         <v>0.2</v>
@@ -1381,10 +1381,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.4788178205490112</v>
+        <v>0.4876426756381989</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9363788962364197</v>
+        <v>0.9634984731674194</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G30" t="n">
         <v>0.2</v>
@@ -1413,10 +1413,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4800976514816284</v>
+        <v>0.4811210632324219</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9296376705169678</v>
+        <v>0.9533666372299194</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G31" t="n">
         <v>0.2</v>
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4825499653816223</v>
+        <v>0.4867899417877197</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9442836046218872</v>
+        <v>0.9714081287384033</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G32" t="n">
         <v>0.2</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.4777736067771912</v>
+        <v>0.4883241951465607</v>
       </c>
       <c r="D33" t="n">
-        <v>0.935810923576355</v>
+        <v>0.962422251701355</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G33" t="n">
         <v>0.2</v>
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.4795780181884766</v>
+        <v>0.4809420704841614</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9298644065856934</v>
+        <v>0.9522879719734192</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G34" t="n">
         <v>0.2</v>
@@ -1541,10 +1541,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.4842497408390045</v>
+        <v>0.4866225719451904</v>
       </c>
       <c r="D35" t="n">
-        <v>0.946358859539032</v>
+        <v>0.9710967540740967</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G35" t="n">
         <v>0.2</v>
@@ -1573,10 +1573,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.4791234731674194</v>
+        <v>0.488262951374054</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9349664449691772</v>
+        <v>0.9623799324035645</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G36" t="n">
         <v>0.2</v>
@@ -1605,10 +1605,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.4775104820728302</v>
+        <v>0.4811132252216339</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9308757781982422</v>
+        <v>0.9519391655921936</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G37" t="n">
         <v>0.2</v>
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.4902783930301666</v>
+        <v>0.4871134161949158</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9544901847839355</v>
+        <v>0.9720085263252258</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G38" t="n">
         <v>0.2</v>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4811476469039917</v>
+        <v>0.4879957139492035</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9378687143325806</v>
+        <v>0.9626988172531128</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G39" t="n">
         <v>0.2</v>
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4736545979976654</v>
+        <v>0.4812803268432617</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9369170665740967</v>
+        <v>0.9519640803337097</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G40" t="n">
         <v>0.2</v>
@@ -1733,10 +1733,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.4932940602302551</v>
+        <v>0.4876066446304321</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9604791402816772</v>
+        <v>0.972920298576355</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G41" t="n">
         <v>0.2</v>
@@ -1765,10 +1765,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.4841991364955902</v>
+        <v>0.4881024658679962</v>
       </c>
       <c r="D42" t="n">
-        <v>0.943327009677887</v>
+        <v>0.9632443785667419</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G42" t="n">
         <v>0.2</v>
@@ -1797,10 +1797,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.4788601100444794</v>
+        <v>0.4815410673618317</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9429657459259033</v>
+        <v>0.9530677199363708</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G43" t="n">
         <v>0.2</v>
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.497791051864624</v>
+        <v>0.4870412945747375</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9683513641357422</v>
+        <v>0.9738919138908386</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G44" t="n">
         <v>0.2</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.4842840135097504</v>
+        <v>0.4870904386043549</v>
       </c>
       <c r="D45" t="n">
-        <v>0.94523024559021</v>
+        <v>0.9642034769058228</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G45" t="n">
         <v>0.2</v>
@@ -1893,10 +1893,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.4819563329219818</v>
+        <v>0.4819876551628113</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9492112994194031</v>
+        <v>0.9542385935783386</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G46" t="n">
         <v>0.2</v>
@@ -1925,10 +1925,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.4976648688316345</v>
+        <v>0.4875287711620331</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9695397615432739</v>
+        <v>0.972200334072113</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G47" t="n">
         <v>0.2</v>
@@ -1957,10 +1957,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.4878737032413483</v>
+        <v>0.4874496459960938</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9465855360031128</v>
+        <v>0.9639195203781128</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G48" t="n">
         <v>0.2</v>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.4819713532924652</v>
+        <v>0.4816656708717346</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9507483243942261</v>
+        <v>0.9534887075424194</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2000,12 +2000,108 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G49" t="n">
         <v>0.2</v>
       </c>
       <c r="H49" t="inlineStr">
+        <is>
+          <t>Rice_Leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>17</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Brown_Spot</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.4891015887260437</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9711042046546936</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ResNet50</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Rice_Leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>17</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Leaf_Smut</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.488005667924881</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9632967114448547</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ResNet50</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Rice_Leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>17</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Bacterial_Leaf_Blight</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.4816299676895142</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9529581069946289</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ResNet50</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t>Rice_Leaves</t>
         </is>
